--- a/results/pvalue_SIDER_all_DGI_AUROC.xlsx
+++ b/results/pvalue_SIDER_all_DGI_AUROC.xlsx
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>19.011</t>
+          <t>11.088</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>18.232</t>
+          <t>10.782</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>21.209</t>
+          <t>13.691</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>16.393</t>
+          <t>11.482</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>0.000</t>
         </is>
       </c>
     </row>
@@ -663,27 +663,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>23.133</t>
+          <t>23.141</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>23.33</t>
+          <t>23.339</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>24.431</t>
+          <t>24.439</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>26.19</t>
+          <t>26.199</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>10.278</t>
+          <t>13.898</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
